--- a/Подсчет заданий/other data.xlsx
+++ b/Подсчет заданий/other data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Подсчет заданий\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8A3EAF-EA30-4109-B8D9-AA34FB53CE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB1F6AC-4706-4753-8827-1A3B71D2A620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7395" yWindow="2715" windowWidth="19080" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6960" yWindow="1770" windowWidth="19080" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +622,7 @@
         <v>94</v>
       </c>
       <c r="E4">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -667,7 +667,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>790</v>
+        <v>820</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
@@ -716,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -761,7 +761,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
